--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori1/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori1/99/correct_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Abnormal compass function or GPS signal detected</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8-12</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -497,21 +497,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered . Aircraft is returning home .</t>
+          <t>Abnormal compass function or GPS signal detected . Aircraft switched to ATTI mode .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>8-12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -536,12 +536,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Aircraft is returning home</t>
+          <t>Advanced RTH Image Transmission Recovered</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,21 +557,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak . Home Point not updated .</t>
+          <t>Advanced RTH Image Transmission Recovered . Aircraft is returning home .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak</t>
+          <t>Aircraft is returning home</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Home Point not updated</t>
+          <t>Aircraft GPS signal too weak</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -617,21 +617,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Initiating Return to Home will now trigger Auto Landing</t>
+          <t>Home Point not updated</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8-16</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point</t>
+          <t>Initiating Return to Home will now trigger Auto Landing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>8-16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -671,27 +671,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
+          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Aircraft is close to the Home Point</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -716,12 +716,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Critically Low Voltage . Aircraft will land .</t>
+          <t>Backward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Critically Low Voltage</t>
+          <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1667,21 +1667,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz</t>
+          <t>Drag a box around or tap a target on screen</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1706,20 +1706,50 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>Live stream video frame rate less than 9Hz</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0-7</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>22</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>Fly with caution</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>9-11</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori1/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori1/99/correct_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>8-12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -497,21 +497,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected . Aircraft switched to ATTI mode .</t>
+          <t>Advanced RTH Image Transmission Recovered . Aircraft is returning home .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Advanced RTH Image Transmission Recovered</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8-12</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -536,12 +536,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered</t>
+          <t>Aircraft is returning home</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,21 +557,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered . Aircraft is returning home .</t>
+          <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Aircraft is returning home</t>
+          <t>Aircraft GPS signal too weak</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak</t>
+          <t>Home Point not updated</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -617,21 +617,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak . Home Point not updated .</t>
+          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Home Point not updated</t>
+          <t>Initiating Return to Home will now trigger Auto Landing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>8-16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Initiating Return to Home will now trigger Auto Landing</t>
+          <t>Aircraft is close to the Home Point</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8-16</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -671,27 +671,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Backward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -716,12 +716,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
+          <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning</t>
+          <t>Critically Low Voltage</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1667,21 +1667,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen</t>
+          <t>Live stream video frame rate less than 9Hz</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1706,12 +1706,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1720,36 +1720,6 @@
         </is>
       </c>
       <c r="F43" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>22</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Fly with caution</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>9-11</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
